--- a/MFNN/singlefluid/Data_HF.xlsx
+++ b/MFNN/singlefluid/Data_HF.xlsx
@@ -48,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +64,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -102,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -116,13 +110,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -137,7 +128,7 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -448,13 +439,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -470,13 +461,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -496,7 +487,7 @@
       <c r="E2" s="3">
         <v>45590</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>411130</v>
       </c>
       <c r="G2" s="4">
@@ -519,7 +510,7 @@
       <c r="E3" s="3">
         <v>22299</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>264980</v>
       </c>
       <c r="G3" s="4">
@@ -542,7 +533,7 @@
       <c r="E4" s="3">
         <v>12605</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>176180</v>
       </c>
       <c r="G4" s="4">
@@ -565,7 +556,7 @@
       <c r="E5" s="4">
         <v>5561.1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>112180</v>
       </c>
       <c r="G5" s="4">
@@ -792,10 +783,10 @@
       <c r="D15" s="3">
         <v>100000</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>451140</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>912400</v>
       </c>
       <c r="G15" s="4">
@@ -815,10 +806,10 @@
       <c r="D16" s="3">
         <v>63100</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>341440</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>658230</v>
       </c>
       <c r="G16" s="4">
@@ -838,10 +829,10 @@
       <c r="D17" s="3">
         <v>39800</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>254790</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>480380</v>
       </c>
       <c r="G17" s="4">
@@ -861,10 +852,10 @@
       <c r="D18" s="3">
         <v>25100</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>185050</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>353310</v>
       </c>
       <c r="G18" s="4">
@@ -884,10 +875,10 @@
       <c r="D19" s="3">
         <v>15800</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>129690</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>261680</v>
       </c>
       <c r="G19" s="4">
@@ -910,7 +901,7 @@
       <c r="E20" s="3">
         <v>86885</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>194500</v>
       </c>
       <c r="G20" s="4">
@@ -933,7 +924,7 @@
       <c r="E21" s="3">
         <v>54169</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>142160</v>
       </c>
       <c r="G21" s="4">
@@ -956,7 +947,7 @@
       <c r="E22" s="3">
         <v>31016</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>100760</v>
       </c>
       <c r="G22" s="4">
@@ -1160,10 +1151,10 @@
       <c r="D31" s="3">
         <v>100000</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>686940</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1233800</v>
       </c>
       <c r="G31" s="4">
@@ -1183,10 +1174,10 @@
       <c r="D32" s="3">
         <v>63100</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>545420</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>890520</v>
       </c>
       <c r="G32" s="4">
@@ -1206,10 +1197,10 @@
       <c r="D33" s="3">
         <v>39800</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>433650</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>650700</v>
       </c>
       <c r="G33" s="4">
@@ -1229,10 +1220,10 @@
       <c r="D34" s="3">
         <v>25100</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>345550</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>485140</v>
       </c>
       <c r="G34" s="4">
@@ -1252,10 +1243,10 @@
       <c r="D35" s="3">
         <v>15800</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>276190</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>352610</v>
       </c>
       <c r="G35" s="4">
@@ -1275,10 +1266,10 @@
       <c r="D36" s="3">
         <v>10000</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>214930</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>273520</v>
       </c>
       <c r="G36" s="4">
@@ -1298,10 +1289,10 @@
       <c r="D37" s="3">
         <v>6310</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>164820</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>214770</v>
       </c>
       <c r="G37" s="4">
@@ -1321,10 +1312,10 @@
       <c r="D38" s="3">
         <v>3980</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>122630</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>170330</v>
       </c>
       <c r="G38" s="4">
@@ -1347,7 +1338,7 @@
       <c r="E39" s="3">
         <v>87068</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>135810</v>
       </c>
       <c r="G39" s="4">
@@ -1370,7 +1361,7 @@
       <c r="E40" s="3">
         <v>57217</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>107000</v>
       </c>
       <c r="G40" s="4">
@@ -1597,10 +1588,10 @@
       <c r="D50" s="3">
         <v>100000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>694340</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>963350</v>
       </c>
       <c r="G50" s="4">
@@ -1620,10 +1611,10 @@
       <c r="D51" s="3">
         <v>63100</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>567140</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>745780</v>
       </c>
       <c r="G51" s="4">
@@ -1643,10 +1634,10 @@
       <c r="D52" s="3">
         <v>39800</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>459240</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>563860</v>
       </c>
       <c r="G52" s="4">
@@ -1666,10 +1657,10 @@
       <c r="D53" s="3">
         <v>25100</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>374750</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>432880</v>
       </c>
       <c r="G53" s="4">
@@ -1689,10 +1680,10 @@
       <c r="D54" s="3">
         <v>15800</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>306700</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>336830</v>
       </c>
       <c r="G54" s="4">
@@ -1712,10 +1703,10 @@
       <c r="D55" s="3">
         <v>10000</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>251180</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>265460</v>
       </c>
       <c r="G55" s="4">
@@ -1735,10 +1726,10 @@
       <c r="D56" s="3">
         <v>6310</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>205510</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>212130</v>
       </c>
       <c r="G56" s="4">
@@ -1758,10 +1749,10 @@
       <c r="D57" s="3">
         <v>3980</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>174750</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>178530</v>
       </c>
       <c r="G57" s="4">
@@ -1781,10 +1772,10 @@
       <c r="D58" s="3">
         <v>2510</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>138370</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>143280</v>
       </c>
       <c r="G58" s="4">
@@ -1804,10 +1795,10 @@
       <c r="D59" s="3">
         <v>1580</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>107530</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>116540</v>
       </c>
       <c r="G59" s="4">
@@ -2103,10 +2094,10 @@
       <c r="D72" s="5">
         <v>100000</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>445150</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>645231</v>
       </c>
       <c r="G72" s="4">
@@ -2126,10 +2117,10 @@
       <c r="D73" s="5">
         <v>63100</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <v>361050</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>440230</v>
       </c>
       <c r="G73" s="4">
@@ -2149,10 +2140,10 @@
       <c r="D74" s="5">
         <v>39800</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>296040</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>329950</v>
       </c>
       <c r="G74" s="4">
@@ -2172,10 +2163,10 @@
       <c r="D75" s="5">
         <v>25100</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="11">
         <v>244800</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>250120</v>
       </c>
       <c r="G75" s="4">
@@ -2195,10 +2186,10 @@
       <c r="D76" s="5">
         <v>15800</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>204180</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>191790</v>
       </c>
       <c r="G76" s="4">
@@ -2218,10 +2209,10 @@
       <c r="D77" s="5">
         <v>10000</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="11">
         <v>171600</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>148800</v>
       </c>
       <c r="G77" s="4">
@@ -2241,10 +2232,10 @@
       <c r="D78" s="5">
         <v>6310</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="11">
         <v>145280</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>116950</v>
       </c>
       <c r="G78" s="4">
@@ -2264,7 +2255,7 @@
       <c r="D79" s="5">
         <v>3980</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="11">
         <v>123800</v>
       </c>
       <c r="F79" s="5">
@@ -2287,7 +2278,7 @@
       <c r="D80" s="5">
         <v>2510</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="11">
         <v>106000</v>
       </c>
       <c r="F80" s="5">
@@ -2468,7 +2459,7 @@
       <c r="C88" s="4">
         <v>1.2</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>63.1</v>
       </c>
       <c r="E88" s="5">
@@ -2491,7 +2482,7 @@
       <c r="C89" s="4">
         <v>1.2</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <v>39.8</v>
       </c>
       <c r="E89" s="5">
@@ -2514,10 +2505,10 @@
       <c r="C90" s="4">
         <v>1.2</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>25.1</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>2524.6</v>
       </c>
       <c r="F90" s="5">
@@ -2537,10 +2528,10 @@
       <c r="C91" s="4">
         <v>1.2</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>15.8</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>1065.1</v>
       </c>
       <c r="F91" s="5">
@@ -2563,10 +2554,10 @@
       <c r="D92" s="5">
         <v>10</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>421.1</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <v>3875.2</v>
       </c>
       <c r="G92" s="4">
@@ -2583,13 +2574,13 @@
       <c r="C93" s="4">
         <v>1.2</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>6.31</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>153.11</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <v>2002.6</v>
       </c>
       <c r="G93" s="4">
@@ -2609,10 +2600,10 @@
       <c r="D94" s="3">
         <v>100000</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>796960</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>1295900</v>
       </c>
       <c r="G94" s="4">
@@ -2632,10 +2623,10 @@
       <c r="D95" s="3">
         <v>63100</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>642990</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>943440</v>
       </c>
       <c r="G95" s="4">
@@ -2655,10 +2646,10 @@
       <c r="D96" s="3">
         <v>39800</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>524110</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>695770</v>
       </c>
       <c r="G96" s="4">
@@ -2678,10 +2669,10 @@
       <c r="D97" s="3">
         <v>25100</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>430270</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>518380</v>
       </c>
       <c r="G97" s="4">
@@ -2701,10 +2692,10 @@
       <c r="D98" s="3">
         <v>15800</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>355680</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>390680</v>
       </c>
       <c r="G98" s="4">
@@ -2724,10 +2715,10 @@
       <c r="D99" s="3">
         <v>10000</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>296700</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <v>298650</v>
       </c>
       <c r="G99" s="4">
@@ -2747,10 +2738,10 @@
       <c r="D100" s="3">
         <v>6310</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>249380</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>231880</v>
       </c>
       <c r="G100" s="4">
@@ -2770,10 +2761,10 @@
       <c r="D101" s="3">
         <v>3980</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>211390</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="10">
         <v>182490</v>
       </c>
       <c r="G101" s="4">
@@ -2793,10 +2784,10 @@
       <c r="D102" s="3">
         <v>2510</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>179990</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <v>145640</v>
       </c>
       <c r="G102" s="4">
@@ -2816,10 +2807,10 @@
       <c r="D103" s="3">
         <v>1580</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>153990</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="10">
         <v>117870</v>
       </c>
       <c r="G103" s="4">
@@ -2839,7 +2830,7 @@
       <c r="D104" s="3">
         <v>1000</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>132160</v>
       </c>
       <c r="F104" s="3">
@@ -2862,7 +2853,7 @@
       <c r="D105" s="3">
         <v>631</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>116030</v>
       </c>
       <c r="F105" s="3">
@@ -3184,10 +3175,10 @@
       <c r="D119" s="3">
         <v>100000</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>871300</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>1693500</v>
       </c>
       <c r="G119" s="4">
@@ -3207,10 +3198,10 @@
       <c r="D120" s="3">
         <v>63100</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>696200</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <v>1187600</v>
       </c>
       <c r="G120" s="4">
@@ -3230,10 +3221,10 @@
       <c r="D121" s="3">
         <v>39800</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>562660</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>847030</v>
       </c>
       <c r="G121" s="4">
@@ -3253,10 +3244,10 @@
       <c r="D122" s="3">
         <v>25100</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>463120</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>617250</v>
       </c>
       <c r="G122" s="4">
@@ -3276,10 +3267,10 @@
       <c r="D123" s="3">
         <v>15800</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>385420</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>397010</v>
       </c>
       <c r="G123" s="4">
@@ -3299,10 +3290,10 @@
       <c r="D124" s="3">
         <v>10000</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>320100</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>302950</v>
       </c>
       <c r="G124" s="4">
@@ -3322,10 +3313,10 @@
       <c r="D125" s="3">
         <v>6310</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>268220</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <v>233210</v>
       </c>
       <c r="G125" s="4">
@@ -3345,10 +3336,10 @@
       <c r="D126" s="3">
         <v>3980</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="10">
         <v>226470</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="10">
         <v>181540</v>
       </c>
       <c r="G126" s="4">
@@ -3368,10 +3359,10 @@
       <c r="D127" s="3">
         <v>2510</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="10">
         <v>192680</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F127" s="10">
         <v>143080</v>
       </c>
       <c r="G127" s="4">
@@ -3391,10 +3382,10 @@
       <c r="D128" s="3">
         <v>1580</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>164790</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="10">
         <v>114100</v>
       </c>
       <c r="G128" s="4">
@@ -3414,7 +3405,7 @@
       <c r="D129" s="3">
         <v>1000</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="10">
         <v>141910</v>
       </c>
       <c r="F129" s="3">
@@ -3437,7 +3428,7 @@
       <c r="D130" s="3">
         <v>631</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <v>122490</v>
       </c>
       <c r="F130" s="3">
@@ -3460,7 +3451,7 @@
       <c r="D131" s="3">
         <v>398</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="10">
         <v>105680</v>
       </c>
       <c r="F131" s="3">
@@ -3828,10 +3819,10 @@
       <c r="D147" s="3">
         <v>100000</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="10">
         <v>1336450</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>2425940</v>
       </c>
       <c r="G147" s="4">
@@ -3851,10 +3842,10 @@
       <c r="D148" s="3">
         <v>63100</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="10">
         <v>976100</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="10">
         <v>1576220</v>
       </c>
       <c r="G148" s="4">
@@ -3874,10 +3865,10 @@
       <c r="D149" s="3">
         <v>39800</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="10">
         <v>735460</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="10">
         <v>997140</v>
       </c>
       <c r="G149" s="4">
@@ -3897,10 +3888,10 @@
       <c r="D150" s="3">
         <v>25100</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="10">
         <v>568850</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F150" s="10">
         <v>737440</v>
       </c>
       <c r="G150" s="4">
@@ -3920,10 +3911,10 @@
       <c r="D151" s="3">
         <v>15800</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="10">
         <v>467010</v>
       </c>
-      <c r="F151" s="11">
+      <c r="F151" s="10">
         <v>540520</v>
       </c>
       <c r="G151" s="4">
@@ -3943,10 +3934,10 @@
       <c r="D152" s="3">
         <v>10000</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="10">
         <v>386860</v>
       </c>
-      <c r="F152" s="11">
+      <c r="F152" s="10">
         <v>406440</v>
       </c>
       <c r="G152" s="4">
@@ -3966,10 +3957,10 @@
       <c r="D153" s="3">
         <v>6310</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>323500</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F153" s="10">
         <v>308770</v>
       </c>
       <c r="G153" s="4">
@@ -3989,10 +3980,10 @@
       <c r="D154" s="3">
         <v>3980</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>273270</v>
       </c>
-      <c r="F154" s="11">
+      <c r="F154" s="10">
         <v>237320</v>
       </c>
       <c r="G154" s="4">
@@ -4012,10 +4003,10 @@
       <c r="D155" s="3">
         <v>2510</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>233110</v>
       </c>
-      <c r="F155" s="11">
+      <c r="F155" s="10">
         <v>184490</v>
       </c>
       <c r="G155" s="4">
@@ -4035,10 +4026,10 @@
       <c r="D156" s="3">
         <v>1580</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>200770</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F156" s="10">
         <v>145180</v>
       </c>
       <c r="G156" s="4">
@@ -4058,10 +4049,10 @@
       <c r="D157" s="3">
         <v>1000</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>174410</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F157" s="10">
         <v>115770</v>
       </c>
       <c r="G157" s="4">
@@ -4081,7 +4072,7 @@
       <c r="D158" s="3">
         <v>631</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>145660</v>
       </c>
       <c r="F158" s="3">
@@ -4104,7 +4095,7 @@
       <c r="D159" s="3">
         <v>398</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="10">
         <v>127060</v>
       </c>
       <c r="F159" s="3">
@@ -4127,7 +4118,7 @@
       <c r="D160" s="3">
         <v>251</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="10">
         <v>111090</v>
       </c>
       <c r="F160" s="3">
@@ -4518,10 +4509,10 @@
       <c r="D177" s="3">
         <v>100000</v>
       </c>
-      <c r="E177" s="11">
+      <c r="E177" s="10">
         <v>773800</v>
       </c>
-      <c r="F177" s="11">
+      <c r="F177" s="10">
         <v>1153200</v>
       </c>
       <c r="G177" s="4">
@@ -4541,10 +4532,10 @@
       <c r="D178" s="3">
         <v>63100</v>
       </c>
-      <c r="E178" s="11">
+      <c r="E178" s="10">
         <v>627490</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="10">
         <v>844300</v>
       </c>
       <c r="G178" s="4">
@@ -4564,10 +4555,10 @@
       <c r="D179" s="3">
         <v>39800</v>
       </c>
-      <c r="E179" s="11">
+      <c r="E179" s="10">
         <v>514030</v>
       </c>
-      <c r="F179" s="11">
+      <c r="F179" s="10">
         <v>654800</v>
       </c>
       <c r="G179" s="4">
@@ -4587,10 +4578,10 @@
       <c r="D180" s="3">
         <v>25100</v>
       </c>
-      <c r="E180" s="11">
+      <c r="E180" s="10">
         <v>425230</v>
       </c>
-      <c r="F180" s="11">
+      <c r="F180" s="10">
         <v>497560</v>
       </c>
       <c r="G180" s="4">
@@ -4610,10 +4601,10 @@
       <c r="D181" s="3">
         <v>15800</v>
       </c>
-      <c r="E181" s="11">
+      <c r="E181" s="10">
         <v>354920</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F181" s="10">
         <v>373980</v>
       </c>
       <c r="G181" s="4">
@@ -4633,10 +4624,10 @@
       <c r="D182" s="3">
         <v>10000</v>
       </c>
-      <c r="E182" s="11">
+      <c r="E182" s="10">
         <v>328740</v>
       </c>
-      <c r="F182" s="11">
+      <c r="F182" s="10">
         <v>298720</v>
       </c>
       <c r="G182" s="4">
@@ -4656,10 +4647,10 @@
       <c r="D183" s="3">
         <v>6310</v>
       </c>
-      <c r="E183" s="11">
+      <c r="E183" s="10">
         <v>294010</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F183" s="10">
         <v>249320</v>
       </c>
       <c r="G183" s="4">
@@ -4679,10 +4670,10 @@
       <c r="D184" s="3">
         <v>3980</v>
       </c>
-      <c r="E184" s="11">
+      <c r="E184" s="10">
         <v>278050</v>
       </c>
-      <c r="F184" s="11">
+      <c r="F184" s="10">
         <v>203980</v>
       </c>
       <c r="G184" s="4">
@@ -4702,10 +4693,10 @@
       <c r="D185" s="3">
         <v>2510</v>
       </c>
-      <c r="E185" s="11">
+      <c r="E185" s="10">
         <v>259050</v>
       </c>
-      <c r="F185" s="11">
+      <c r="F185" s="10">
         <v>170240</v>
       </c>
       <c r="G185" s="4">
@@ -4725,10 +4716,10 @@
       <c r="D186" s="3">
         <v>1580</v>
       </c>
-      <c r="E186" s="11">
+      <c r="E186" s="10">
         <v>241270</v>
       </c>
-      <c r="F186" s="11">
+      <c r="F186" s="10">
         <v>144100</v>
       </c>
       <c r="G186" s="4">
@@ -4748,7 +4739,7 @@
       <c r="D187" s="3">
         <v>1000</v>
       </c>
-      <c r="E187" s="11">
+      <c r="E187" s="10">
         <v>219760</v>
       </c>
       <c r="F187" s="3">
@@ -4771,7 +4762,7 @@
       <c r="D188" s="3">
         <v>631</v>
       </c>
-      <c r="E188" s="11">
+      <c r="E188" s="10">
         <v>191540</v>
       </c>
       <c r="F188" s="3">
@@ -4794,7 +4785,7 @@
       <c r="D189" s="3">
         <v>398</v>
       </c>
-      <c r="E189" s="11">
+      <c r="E189" s="10">
         <v>175670</v>
       </c>
       <c r="F189" s="3">
@@ -5280,11 +5271,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -5304,7 +5295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>40</v>
       </c>
@@ -5321,7 +5312,7 @@
         <v>1.523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>40</v>
       </c>
@@ -5338,7 +5329,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>40</v>
       </c>
@@ -5355,7 +5346,7 @@
         <v>1.979</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>40</v>
       </c>
@@ -5372,7 +5363,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>40</v>
       </c>
@@ -5389,7 +5380,7 @@
         <v>2.413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -5406,7 +5397,7 @@
         <v>2.592</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>40</v>
       </c>
@@ -5423,7 +5414,7 @@
         <v>2.707</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>40</v>
       </c>
@@ -5440,7 +5431,7 @@
         <v>2.759</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -5457,7 +5448,7 @@
         <v>2.742</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -5474,7 +5465,7 @@
         <v>2.667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>40</v>
       </c>
@@ -5491,7 +5482,7 @@
         <v>2.563</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>40</v>
       </c>
@@ -5508,7 +5499,7 @@
         <v>2.437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>40</v>
       </c>
@@ -5525,7 +5516,7 @@
         <v>2.294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>40</v>
       </c>
@@ -5542,7 +5533,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>40</v>
       </c>
@@ -5824,7 +5815,7 @@
       <c r="C32" s="4">
         <v>1.21</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>63.1</v>
       </c>
       <c r="E32" s="6">
@@ -5841,7 +5832,7 @@
       <c r="C33" s="4">
         <v>1.21</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>39.8</v>
       </c>
       <c r="E33" s="6">
@@ -5858,7 +5849,7 @@
       <c r="C34" s="4">
         <v>1.21</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>25.1</v>
       </c>
       <c r="E34" s="6">
@@ -5875,7 +5866,7 @@
       <c r="C35" s="4">
         <v>1.21</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>15.8</v>
       </c>
       <c r="E35" s="6">
@@ -5909,7 +5900,7 @@
       <c r="C37" s="4">
         <v>1.21</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>6.31</v>
       </c>
       <c r="E37" s="6">
@@ -5926,7 +5917,7 @@
       <c r="C38" s="4">
         <v>1.21</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>3.98</v>
       </c>
       <c r="E38" s="6">
@@ -5943,7 +5934,7 @@
       <c r="C39" s="4">
         <v>1.21</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>2.51</v>
       </c>
       <c r="E39" s="6">
@@ -5960,7 +5951,7 @@
       <c r="C40" s="4">
         <v>1.21</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>1.58</v>
       </c>
       <c r="E40" s="6">
@@ -5994,7 +5985,7 @@
       <c r="C42" s="4">
         <v>1.21</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>0.631</v>
       </c>
       <c r="E42" s="6">
@@ -6011,7 +6002,7 @@
       <c r="C43" s="4">
         <v>1.21</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>0.398</v>
       </c>
       <c r="E43" s="6">
@@ -6028,7 +6019,7 @@
       <c r="C44" s="4">
         <v>1.21</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>0.251</v>
       </c>
       <c r="E44" s="6">
@@ -6045,7 +6036,7 @@
       <c r="C45" s="4">
         <v>1.21</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>0.158</v>
       </c>
       <c r="E45" s="6">
@@ -6062,7 +6053,7 @@
       <c r="C46" s="4">
         <v>1.21</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>0.1</v>
       </c>
       <c r="E46" s="6">
@@ -6079,7 +6070,7 @@
       <c r="C47" s="4">
         <v>1.21</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>0.0631</v>
       </c>
       <c r="E47" s="6">
@@ -6096,7 +6087,7 @@
       <c r="C48" s="4">
         <v>1.21</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>0.0398</v>
       </c>
       <c r="E48" s="6">
@@ -6113,7 +6104,7 @@
       <c r="C49" s="4">
         <v>1.21</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.0251</v>
       </c>
       <c r="E49" s="6">
@@ -6130,7 +6121,7 @@
       <c r="C50" s="4">
         <v>1.21</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0.0158</v>
       </c>
       <c r="E50" s="6">
@@ -6147,7 +6138,7 @@
       <c r="C51" s="4">
         <v>1.21</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>0.01</v>
       </c>
       <c r="E51" s="6">
@@ -6674,7 +6665,7 @@
       <c r="C82" s="4">
         <v>1.09</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>63.1</v>
       </c>
       <c r="E82" s="6">
@@ -6691,7 +6682,7 @@
       <c r="C83" s="4">
         <v>1.09</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>39.8</v>
       </c>
       <c r="E83" s="6">
@@ -6708,7 +6699,7 @@
       <c r="C84" s="4">
         <v>1.09</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>25.1</v>
       </c>
       <c r="E84" s="6">
@@ -6725,7 +6716,7 @@
       <c r="C85" s="4">
         <v>1.09</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>15.8</v>
       </c>
       <c r="E85" s="6">
@@ -6759,7 +6750,7 @@
       <c r="C87" s="4">
         <v>1.09</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>6.31</v>
       </c>
       <c r="E87" s="6">
@@ -6776,7 +6767,7 @@
       <c r="C88" s="4">
         <v>1.09</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>3.98</v>
       </c>
       <c r="E88" s="6">
@@ -6793,7 +6784,7 @@
       <c r="C89" s="4">
         <v>1.09</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <v>2.51</v>
       </c>
       <c r="E89" s="6">
@@ -6810,7 +6801,7 @@
       <c r="C90" s="4">
         <v>1.09</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>1.58</v>
       </c>
       <c r="E90" s="6">
@@ -6844,10 +6835,10 @@
       <c r="C92" s="4">
         <v>1.09</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>0.631</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>0.286</v>
       </c>
     </row>
@@ -6861,10 +6852,10 @@
       <c r="C93" s="4">
         <v>1.09</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>0.398</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>0.242</v>
       </c>
     </row>
@@ -6878,10 +6869,10 @@
       <c r="C94" s="4">
         <v>1.09</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>0.251</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>0.204</v>
       </c>
     </row>
@@ -6895,10 +6886,10 @@
       <c r="C95" s="4">
         <v>1.09</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <v>0.158</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>0.172</v>
       </c>
     </row>
@@ -6912,10 +6903,10 @@
       <c r="C96" s="4">
         <v>1.09</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>0.1</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>0.16</v>
       </c>
     </row>
@@ -6929,10 +6920,10 @@
       <c r="C97" s="4">
         <v>1.09</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <v>0.0631</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <v>0.139</v>
       </c>
     </row>
@@ -6946,10 +6937,10 @@
       <c r="C98" s="4">
         <v>1.09</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>0.0398</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <v>0.117</v>
       </c>
     </row>
@@ -6963,10 +6954,10 @@
       <c r="C99" s="4">
         <v>1.09</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>0.0251</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>0.102</v>
       </c>
     </row>
@@ -6980,10 +6971,10 @@
       <c r="C100" s="4">
         <v>1.09</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <v>0.0158</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <v>0.091</v>
       </c>
     </row>
@@ -6997,10 +6988,10 @@
       <c r="C101" s="4">
         <v>1.09</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="6">
         <v>0.01</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="6">
         <v>0.08</v>
       </c>
     </row>
@@ -7391,7 +7382,7 @@
       <c r="D124" s="5">
         <v>2510</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="6">
         <v>1.101</v>
       </c>
     </row>
@@ -7524,7 +7515,7 @@
       <c r="C132" s="4">
         <v>1.07</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="6">
         <v>63.1</v>
       </c>
       <c r="E132" s="6">
@@ -7541,7 +7532,7 @@
       <c r="C133" s="4">
         <v>1.07</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="6">
         <v>39.8</v>
       </c>
       <c r="E133" s="6">
@@ -7558,7 +7549,7 @@
       <c r="C134" s="4">
         <v>1.07</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="6">
         <v>25.1</v>
       </c>
       <c r="E134" s="6">
@@ -7575,7 +7566,7 @@
       <c r="C135" s="4">
         <v>1.07</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>15.8</v>
       </c>
       <c r="E135" s="6">
@@ -7609,7 +7600,7 @@
       <c r="C137" s="4">
         <v>1.07</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="6">
         <v>6.31</v>
       </c>
       <c r="E137" s="6">
@@ -7626,7 +7617,7 @@
       <c r="C138" s="4">
         <v>1.07</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="6">
         <v>3.98</v>
       </c>
       <c r="E138" s="6">
@@ -7643,7 +7634,7 @@
       <c r="C139" s="4">
         <v>1.07</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="6">
         <v>2.51</v>
       </c>
       <c r="E139" s="6">
@@ -7660,7 +7651,7 @@
       <c r="C140" s="4">
         <v>1.07</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="6">
         <v>1.58</v>
       </c>
       <c r="E140" s="6">
@@ -7694,7 +7685,7 @@
       <c r="C142" s="4">
         <v>1.07</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="6">
         <v>0.631</v>
       </c>
       <c r="E142" s="6">
@@ -7711,7 +7702,7 @@
       <c r="C143" s="4">
         <v>1.07</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="6">
         <v>0.398</v>
       </c>
       <c r="E143" s="6">
@@ -7728,7 +7719,7 @@
       <c r="C144" s="4">
         <v>1.07</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="6">
         <v>0.251</v>
       </c>
       <c r="E144" s="6">
@@ -7745,7 +7736,7 @@
       <c r="C145" s="4">
         <v>1.07</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="6">
         <v>0.158</v>
       </c>
       <c r="E145" s="6">
@@ -7762,7 +7753,7 @@
       <c r="C146" s="4">
         <v>1.07</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="6">
         <v>0.1</v>
       </c>
       <c r="E146" s="6">
@@ -7779,7 +7770,7 @@
       <c r="C147" s="4">
         <v>1.07</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="6">
         <v>0.0631</v>
       </c>
       <c r="E147" s="6">
@@ -7796,10 +7787,10 @@
       <c r="C148" s="4">
         <v>1.07</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="6">
         <v>0.0398</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="6">
         <v>0.154</v>
       </c>
     </row>
@@ -7813,10 +7804,10 @@
       <c r="C149" s="4">
         <v>1.07</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="6">
         <v>0.0251</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="6">
         <v>0.126</v>
       </c>
     </row>
@@ -7830,10 +7821,10 @@
       <c r="C150" s="4">
         <v>1.07</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="6">
         <v>0.0158</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="6">
         <v>0.102</v>
       </c>
     </row>
@@ -7847,10 +7838,10 @@
       <c r="C151" s="4">
         <v>1.07</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="6">
         <v>0.01</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="6">
         <v>0.082</v>
       </c>
     </row>
@@ -8187,7 +8178,7 @@
       <c r="C171" s="4">
         <v>1.25</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="6">
         <v>63.1</v>
       </c>
       <c r="E171" s="6">
@@ -8204,7 +8195,7 @@
       <c r="C172" s="4">
         <v>1.25</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="6">
         <v>39.8</v>
       </c>
       <c r="E172" s="6">
@@ -8221,7 +8212,7 @@
       <c r="C173" s="4">
         <v>1.25</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="6">
         <v>25.1</v>
       </c>
       <c r="E173" s="6">
@@ -8238,7 +8229,7 @@
       <c r="C174" s="4">
         <v>1.25</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="6">
         <v>15.8</v>
       </c>
       <c r="E174" s="6">
@@ -8272,7 +8263,7 @@
       <c r="C176" s="4">
         <v>1.25</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="6">
         <v>6.31</v>
       </c>
       <c r="E176" s="6">
@@ -8289,7 +8280,7 @@
       <c r="C177" s="4">
         <v>1.25</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="6">
         <v>3.98</v>
       </c>
       <c r="E177" s="6">
@@ -8306,7 +8297,7 @@
       <c r="C178" s="4">
         <v>1.25</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="6">
         <v>2.51</v>
       </c>
       <c r="E178" s="6">
@@ -8323,7 +8314,7 @@
       <c r="C179" s="4">
         <v>1.25</v>
       </c>
-      <c r="D179" s="7">
+      <c r="D179" s="6">
         <v>1.58</v>
       </c>
       <c r="E179" s="6">
@@ -8357,7 +8348,7 @@
       <c r="C181" s="4">
         <v>1.25</v>
       </c>
-      <c r="D181" s="7">
+      <c r="D181" s="6">
         <v>0.631</v>
       </c>
       <c r="E181" s="6">
@@ -8374,7 +8365,7 @@
       <c r="C182" s="4">
         <v>1.25</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="6">
         <v>0.398</v>
       </c>
       <c r="E182" s="6">
@@ -8391,7 +8382,7 @@
       <c r="C183" s="4">
         <v>1.25</v>
       </c>
-      <c r="D183" s="7">
+      <c r="D183" s="6">
         <v>0.251</v>
       </c>
       <c r="E183" s="6">
@@ -8408,7 +8399,7 @@
       <c r="C184" s="4">
         <v>1.25</v>
       </c>
-      <c r="D184" s="7">
+      <c r="D184" s="6">
         <v>0.158</v>
       </c>
       <c r="E184" s="6">
@@ -8425,7 +8416,7 @@
       <c r="C185" s="4">
         <v>1.25</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="6">
         <v>0.1</v>
       </c>
       <c r="E185" s="6">
@@ -8442,7 +8433,7 @@
       <c r="C186" s="4">
         <v>1.25</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="6">
         <v>0.0631</v>
       </c>
       <c r="E186" s="6">
@@ -8459,7 +8450,7 @@
       <c r="C187" s="4">
         <v>1.25</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="6">
         <v>0.0398</v>
       </c>
       <c r="E187" s="6">
@@ -8476,7 +8467,7 @@
       <c r="C188" s="4">
         <v>1.25</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="6">
         <v>0.0251</v>
       </c>
       <c r="E188" s="6">
@@ -8493,7 +8484,7 @@
       <c r="C189" s="4">
         <v>1.25</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D189" s="6">
         <v>0.0158</v>
       </c>
       <c r="E189" s="6">
@@ -8510,7 +8501,7 @@
       <c r="C190" s="4">
         <v>1.25</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D190" s="6">
         <v>0.01</v>
       </c>
       <c r="E190" s="6">
@@ -8986,7 +8977,7 @@
       <c r="C218" s="4">
         <v>1.2</v>
       </c>
-      <c r="D218" s="7">
+      <c r="D218" s="6">
         <v>63.1</v>
       </c>
       <c r="E218" s="6">
@@ -9003,7 +8994,7 @@
       <c r="C219" s="4">
         <v>1.2</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="6">
         <v>39.8</v>
       </c>
       <c r="E219" s="6">
@@ -9020,7 +9011,7 @@
       <c r="C220" s="4">
         <v>1.2</v>
       </c>
-      <c r="D220" s="7">
+      <c r="D220" s="6">
         <v>25.1</v>
       </c>
       <c r="E220" s="6">
@@ -9037,7 +9028,7 @@
       <c r="C221" s="4">
         <v>1.2</v>
       </c>
-      <c r="D221" s="7">
+      <c r="D221" s="6">
         <v>15.8</v>
       </c>
       <c r="E221" s="6">
@@ -9071,7 +9062,7 @@
       <c r="C223" s="4">
         <v>1.2</v>
       </c>
-      <c r="D223" s="7">
+      <c r="D223" s="6">
         <v>6.31</v>
       </c>
       <c r="E223" s="6">
@@ -9088,7 +9079,7 @@
       <c r="C224" s="4">
         <v>1.2</v>
       </c>
-      <c r="D224" s="7">
+      <c r="D224" s="6">
         <v>3.98</v>
       </c>
       <c r="E224" s="6">
@@ -9105,7 +9096,7 @@
       <c r="C225" s="4">
         <v>1.2</v>
       </c>
-      <c r="D225" s="7">
+      <c r="D225" s="6">
         <v>2.51</v>
       </c>
       <c r="E225" s="6">
@@ -9122,7 +9113,7 @@
       <c r="C226" s="4">
         <v>1.2</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="6">
         <v>1.58</v>
       </c>
       <c r="E226" s="6">
@@ -9156,7 +9147,7 @@
       <c r="C228" s="4">
         <v>1.2</v>
       </c>
-      <c r="D228" s="7">
+      <c r="D228" s="6">
         <v>0.631</v>
       </c>
       <c r="E228" s="6">
@@ -9173,7 +9164,7 @@
       <c r="C229" s="4">
         <v>1.2</v>
       </c>
-      <c r="D229" s="7">
+      <c r="D229" s="6">
         <v>0.398</v>
       </c>
       <c r="E229" s="6">
@@ -9190,7 +9181,7 @@
       <c r="C230" s="4">
         <v>1.2</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="6">
         <v>0.251</v>
       </c>
       <c r="E230" s="6">
@@ -9207,7 +9198,7 @@
       <c r="C231" s="4">
         <v>1.2</v>
       </c>
-      <c r="D231" s="7">
+      <c r="D231" s="6">
         <v>0.158</v>
       </c>
       <c r="E231" s="6">
@@ -9224,7 +9215,7 @@
       <c r="C232" s="4">
         <v>1.2</v>
       </c>
-      <c r="D232" s="7">
+      <c r="D232" s="6">
         <v>0.1</v>
       </c>
       <c r="E232" s="6">
@@ -9241,7 +9232,7 @@
       <c r="C233" s="4">
         <v>1.2</v>
       </c>
-      <c r="D233" s="7">
+      <c r="D233" s="6">
         <v>0.0631</v>
       </c>
       <c r="E233" s="6">
@@ -9258,7 +9249,7 @@
       <c r="C234" s="4">
         <v>1.2</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="6">
         <v>0.0398</v>
       </c>
       <c r="E234" s="6">
@@ -9275,7 +9266,7 @@
       <c r="C235" s="4">
         <v>1.2</v>
       </c>
-      <c r="D235" s="7">
+      <c r="D235" s="6">
         <v>0.0251</v>
       </c>
       <c r="E235" s="6">
@@ -9292,7 +9283,7 @@
       <c r="C236" s="4">
         <v>1.2</v>
       </c>
-      <c r="D236" s="7">
+      <c r="D236" s="6">
         <v>0.0158</v>
       </c>
       <c r="E236" s="6">
@@ -9309,7 +9300,7 @@
       <c r="C237" s="4">
         <v>1.2</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D237" s="6">
         <v>0.01</v>
       </c>
       <c r="E237" s="6">
@@ -9751,7 +9742,7 @@
       <c r="C263" s="4">
         <v>1.33</v>
       </c>
-      <c r="D263" s="7">
+      <c r="D263" s="6">
         <v>63.1</v>
       </c>
       <c r="E263" s="6">
@@ -9768,7 +9759,7 @@
       <c r="C264" s="4">
         <v>1.33</v>
       </c>
-      <c r="D264" s="7">
+      <c r="D264" s="6">
         <v>39.8</v>
       </c>
       <c r="E264" s="6">
@@ -9785,7 +9776,7 @@
       <c r="C265" s="4">
         <v>1.33</v>
       </c>
-      <c r="D265" s="7">
+      <c r="D265" s="6">
         <v>25.1</v>
       </c>
       <c r="E265" s="6">
@@ -9802,7 +9793,7 @@
       <c r="C266" s="4">
         <v>1.33</v>
       </c>
-      <c r="D266" s="7">
+      <c r="D266" s="6">
         <v>15.8</v>
       </c>
       <c r="E266" s="6">
@@ -9836,7 +9827,7 @@
       <c r="C268" s="4">
         <v>1.33</v>
       </c>
-      <c r="D268" s="7">
+      <c r="D268" s="6">
         <v>6.31</v>
       </c>
       <c r="E268" s="6">
@@ -9853,7 +9844,7 @@
       <c r="C269" s="4">
         <v>1.33</v>
       </c>
-      <c r="D269" s="7">
+      <c r="D269" s="6">
         <v>3.98</v>
       </c>
       <c r="E269" s="6">
@@ -9870,7 +9861,7 @@
       <c r="C270" s="4">
         <v>1.33</v>
       </c>
-      <c r="D270" s="7">
+      <c r="D270" s="6">
         <v>2.51</v>
       </c>
       <c r="E270" s="6">
@@ -9887,7 +9878,7 @@
       <c r="C271" s="4">
         <v>1.33</v>
       </c>
-      <c r="D271" s="7">
+      <c r="D271" s="6">
         <v>1.58</v>
       </c>
       <c r="E271" s="6">
@@ -9921,7 +9912,7 @@
       <c r="C273" s="4">
         <v>1.33</v>
       </c>
-      <c r="D273" s="7">
+      <c r="D273" s="6">
         <v>0.631</v>
       </c>
       <c r="E273" s="6">
@@ -9938,7 +9929,7 @@
       <c r="C274" s="4">
         <v>1.33</v>
       </c>
-      <c r="D274" s="7">
+      <c r="D274" s="6">
         <v>0.398</v>
       </c>
       <c r="E274" s="6">
@@ -9955,7 +9946,7 @@
       <c r="C275" s="4">
         <v>1.33</v>
       </c>
-      <c r="D275" s="7">
+      <c r="D275" s="6">
         <v>0.251</v>
       </c>
       <c r="E275" s="6">
@@ -9972,7 +9963,7 @@
       <c r="C276" s="4">
         <v>1.33</v>
       </c>
-      <c r="D276" s="7">
+      <c r="D276" s="6">
         <v>0.158</v>
       </c>
       <c r="E276" s="6">
@@ -9989,7 +9980,7 @@
       <c r="C277" s="4">
         <v>1.33</v>
       </c>
-      <c r="D277" s="7">
+      <c r="D277" s="6">
         <v>0.1</v>
       </c>
       <c r="E277" s="6">
@@ -10006,7 +9997,7 @@
       <c r="C278" s="4">
         <v>1.33</v>
       </c>
-      <c r="D278" s="7">
+      <c r="D278" s="6">
         <v>0.0631</v>
       </c>
       <c r="E278" s="6">
@@ -10023,7 +10014,7 @@
       <c r="C279" s="4">
         <v>1.33</v>
       </c>
-      <c r="D279" s="7">
+      <c r="D279" s="6">
         <v>0.0398</v>
       </c>
       <c r="E279" s="6">
@@ -10040,7 +10031,7 @@
       <c r="C280" s="4">
         <v>1.33</v>
       </c>
-      <c r="D280" s="7">
+      <c r="D280" s="6">
         <v>0.0251</v>
       </c>
       <c r="E280" s="6">
@@ -10057,7 +10048,7 @@
       <c r="C281" s="4">
         <v>1.33</v>
       </c>
-      <c r="D281" s="7">
+      <c r="D281" s="6">
         <v>0.0158</v>
       </c>
       <c r="E281" s="6">
@@ -10074,7 +10065,7 @@
       <c r="C282" s="4">
         <v>1.33</v>
       </c>
-      <c r="D282" s="7">
+      <c r="D282" s="6">
         <v>0.01</v>
       </c>
       <c r="E282" s="6">
@@ -10516,7 +10507,7 @@
       <c r="C308" s="4">
         <v>1.29</v>
       </c>
-      <c r="D308" s="7">
+      <c r="D308" s="6">
         <v>63.1</v>
       </c>
       <c r="E308" s="6">
@@ -10533,7 +10524,7 @@
       <c r="C309" s="4">
         <v>1.29</v>
       </c>
-      <c r="D309" s="7">
+      <c r="D309" s="6">
         <v>39.8</v>
       </c>
       <c r="E309" s="6">
@@ -10550,7 +10541,7 @@
       <c r="C310" s="4">
         <v>1.29</v>
       </c>
-      <c r="D310" s="7">
+      <c r="D310" s="6">
         <v>25.1</v>
       </c>
       <c r="E310" s="6">
@@ -10567,7 +10558,7 @@
       <c r="C311" s="4">
         <v>1.29</v>
       </c>
-      <c r="D311" s="7">
+      <c r="D311" s="6">
         <v>15.8</v>
       </c>
       <c r="E311" s="6">
@@ -10601,7 +10592,7 @@
       <c r="C313" s="4">
         <v>1.29</v>
       </c>
-      <c r="D313" s="7">
+      <c r="D313" s="6">
         <v>6.31</v>
       </c>
       <c r="E313" s="6">
@@ -10618,7 +10609,7 @@
       <c r="C314" s="4">
         <v>1.29</v>
       </c>
-      <c r="D314" s="7">
+      <c r="D314" s="6">
         <v>3.98</v>
       </c>
       <c r="E314" s="6">
@@ -10635,7 +10626,7 @@
       <c r="C315" s="4">
         <v>1.29</v>
       </c>
-      <c r="D315" s="7">
+      <c r="D315" s="6">
         <v>2.51</v>
       </c>
       <c r="E315" s="6">
@@ -10652,7 +10643,7 @@
       <c r="C316" s="4">
         <v>1.29</v>
       </c>
-      <c r="D316" s="7">
+      <c r="D316" s="6">
         <v>1.58</v>
       </c>
       <c r="E316" s="6">
@@ -10686,7 +10677,7 @@
       <c r="C318" s="4">
         <v>1.29</v>
       </c>
-      <c r="D318" s="7">
+      <c r="D318" s="6">
         <v>0.631</v>
       </c>
       <c r="E318" s="6">
@@ -10703,7 +10694,7 @@
       <c r="C319" s="4">
         <v>1.29</v>
       </c>
-      <c r="D319" s="7">
+      <c r="D319" s="6">
         <v>0.398</v>
       </c>
       <c r="E319" s="6">
@@ -10720,7 +10711,7 @@
       <c r="C320" s="4">
         <v>1.29</v>
       </c>
-      <c r="D320" s="7">
+      <c r="D320" s="6">
         <v>0.251</v>
       </c>
       <c r="E320" s="6">
@@ -10737,7 +10728,7 @@
       <c r="C321" s="4">
         <v>1.29</v>
       </c>
-      <c r="D321" s="7">
+      <c r="D321" s="6">
         <v>0.158</v>
       </c>
       <c r="E321" s="6">
@@ -10754,10 +10745,10 @@
       <c r="C322" s="4">
         <v>1.29</v>
       </c>
-      <c r="D322" s="7">
+      <c r="D322" s="6">
         <v>0.1</v>
       </c>
-      <c r="E322" s="7">
+      <c r="E322" s="6">
         <v>0.838</v>
       </c>
     </row>
@@ -10771,10 +10762,10 @@
       <c r="C323" s="4">
         <v>1.29</v>
       </c>
-      <c r="D323" s="7">
+      <c r="D323" s="6">
         <v>0.0631</v>
       </c>
-      <c r="E323" s="7">
+      <c r="E323" s="6">
         <v>0.806</v>
       </c>
     </row>
@@ -10788,10 +10779,10 @@
       <c r="C324" s="4">
         <v>1.29</v>
       </c>
-      <c r="D324" s="7">
+      <c r="D324" s="6">
         <v>0.0398</v>
       </c>
-      <c r="E324" s="7">
+      <c r="E324" s="6">
         <v>0.722</v>
       </c>
     </row>
@@ -10805,10 +10796,10 @@
       <c r="C325" s="4">
         <v>1.29</v>
       </c>
-      <c r="D325" s="7">
+      <c r="D325" s="6">
         <v>0.0251</v>
       </c>
-      <c r="E325" s="7">
+      <c r="E325" s="6">
         <v>0.633</v>
       </c>
     </row>
@@ -10822,10 +10813,10 @@
       <c r="C326" s="4">
         <v>1.29</v>
       </c>
-      <c r="D326" s="7">
+      <c r="D326" s="6">
         <v>0.0158</v>
       </c>
-      <c r="E326" s="7">
+      <c r="E326" s="6">
         <v>0.543</v>
       </c>
     </row>
@@ -10839,7 +10830,7 @@
       <c r="C327" s="4">
         <v>1.29</v>
       </c>
-      <c r="D327" s="7">
+      <c r="D327" s="6">
         <v>0.01</v>
       </c>
       <c r="E327" s="6">
@@ -11349,7 +11340,7 @@
       <c r="C357" s="4">
         <v>1.35</v>
       </c>
-      <c r="D357" s="7">
+      <c r="D357" s="6">
         <v>63.1</v>
       </c>
       <c r="E357" s="6">
@@ -11366,7 +11357,7 @@
       <c r="C358" s="4">
         <v>1.35</v>
       </c>
-      <c r="D358" s="7">
+      <c r="D358" s="6">
         <v>39.8</v>
       </c>
       <c r="E358" s="6">
@@ -11383,7 +11374,7 @@
       <c r="C359" s="4">
         <v>1.35</v>
       </c>
-      <c r="D359" s="7">
+      <c r="D359" s="6">
         <v>25.1</v>
       </c>
       <c r="E359" s="6">
@@ -11400,7 +11391,7 @@
       <c r="C360" s="4">
         <v>1.35</v>
       </c>
-      <c r="D360" s="7">
+      <c r="D360" s="6">
         <v>15.8</v>
       </c>
       <c r="E360" s="6">
@@ -11434,7 +11425,7 @@
       <c r="C362" s="4">
         <v>1.35</v>
       </c>
-      <c r="D362" s="7">
+      <c r="D362" s="6">
         <v>6.31</v>
       </c>
       <c r="E362" s="6">
@@ -11451,7 +11442,7 @@
       <c r="C363" s="4">
         <v>1.35</v>
       </c>
-      <c r="D363" s="7">
+      <c r="D363" s="6">
         <v>3.98</v>
       </c>
       <c r="E363" s="6">
@@ -11468,7 +11459,7 @@
       <c r="C364" s="4">
         <v>1.35</v>
       </c>
-      <c r="D364" s="7">
+      <c r="D364" s="6">
         <v>2.51</v>
       </c>
       <c r="E364" s="6">
@@ -11485,7 +11476,7 @@
       <c r="C365" s="4">
         <v>1.35</v>
       </c>
-      <c r="D365" s="7">
+      <c r="D365" s="6">
         <v>1.58</v>
       </c>
       <c r="E365" s="6">
@@ -11519,7 +11510,7 @@
       <c r="C367" s="4">
         <v>1.35</v>
       </c>
-      <c r="D367" s="7">
+      <c r="D367" s="6">
         <v>0.631</v>
       </c>
       <c r="E367" s="6">
@@ -11536,7 +11527,7 @@
       <c r="C368" s="4">
         <v>1.35</v>
       </c>
-      <c r="D368" s="7">
+      <c r="D368" s="6">
         <v>0.398</v>
       </c>
       <c r="E368" s="6">
@@ -11553,7 +11544,7 @@
       <c r="C369" s="4">
         <v>1.35</v>
       </c>
-      <c r="D369" s="7">
+      <c r="D369" s="6">
         <v>0.251</v>
       </c>
       <c r="E369" s="6">
@@ -11570,7 +11561,7 @@
       <c r="C370" s="4">
         <v>1.35</v>
       </c>
-      <c r="D370" s="7">
+      <c r="D370" s="6">
         <v>0.158</v>
       </c>
       <c r="E370" s="6">
@@ -11587,7 +11578,7 @@
       <c r="C371" s="4">
         <v>1.35</v>
       </c>
-      <c r="D371" s="7">
+      <c r="D371" s="6">
         <v>0.1</v>
       </c>
       <c r="E371" s="6">
@@ -11604,7 +11595,7 @@
       <c r="C372" s="4">
         <v>1.35</v>
       </c>
-      <c r="D372" s="7">
+      <c r="D372" s="6">
         <v>0.0631</v>
       </c>
       <c r="E372" s="6">
@@ -11621,7 +11612,7 @@
       <c r="C373" s="4">
         <v>1.35</v>
       </c>
-      <c r="D373" s="7">
+      <c r="D373" s="6">
         <v>0.0398</v>
       </c>
       <c r="E373" s="6">
@@ -11638,7 +11629,7 @@
       <c r="C374" s="4">
         <v>1.35</v>
       </c>
-      <c r="D374" s="7">
+      <c r="D374" s="6">
         <v>0.0251</v>
       </c>
       <c r="E374" s="6">
@@ -11655,7 +11646,7 @@
       <c r="C375" s="4">
         <v>1.35</v>
       </c>
-      <c r="D375" s="7">
+      <c r="D375" s="6">
         <v>0.0158</v>
       </c>
       <c r="E375" s="6">
@@ -11672,7 +11663,7 @@
       <c r="C376" s="4">
         <v>1.35</v>
       </c>
-      <c r="D376" s="7">
+      <c r="D376" s="6">
         <v>0.01</v>
       </c>
       <c r="E376" s="6">
@@ -12165,7 +12156,7 @@
       <c r="C405" s="4">
         <v>1.43</v>
       </c>
-      <c r="D405" s="7">
+      <c r="D405" s="6">
         <v>63.1</v>
       </c>
       <c r="E405" s="6">
@@ -12182,7 +12173,7 @@
       <c r="C406" s="4">
         <v>1.43</v>
       </c>
-      <c r="D406" s="7">
+      <c r="D406" s="6">
         <v>39.8</v>
       </c>
       <c r="E406" s="6">
@@ -12199,7 +12190,7 @@
       <c r="C407" s="4">
         <v>1.43</v>
       </c>
-      <c r="D407" s="7">
+      <c r="D407" s="6">
         <v>25.1</v>
       </c>
       <c r="E407" s="6">
@@ -12216,7 +12207,7 @@
       <c r="C408" s="4">
         <v>1.43</v>
       </c>
-      <c r="D408" s="7">
+      <c r="D408" s="6">
         <v>15.8</v>
       </c>
       <c r="E408" s="6">
@@ -12250,7 +12241,7 @@
       <c r="C410" s="4">
         <v>1.43</v>
       </c>
-      <c r="D410" s="7">
+      <c r="D410" s="6">
         <v>6.31</v>
       </c>
       <c r="E410" s="6">
@@ -12267,7 +12258,7 @@
       <c r="C411" s="4">
         <v>1.43</v>
       </c>
-      <c r="D411" s="7">
+      <c r="D411" s="6">
         <v>3.98</v>
       </c>
       <c r="E411" s="6">
@@ -12284,7 +12275,7 @@
       <c r="C412" s="4">
         <v>1.43</v>
       </c>
-      <c r="D412" s="7">
+      <c r="D412" s="6">
         <v>2.51</v>
       </c>
       <c r="E412" s="6">
@@ -12301,7 +12292,7 @@
       <c r="C413" s="4">
         <v>1.43</v>
       </c>
-      <c r="D413" s="7">
+      <c r="D413" s="6">
         <v>1.58</v>
       </c>
       <c r="E413" s="6">
@@ -12335,7 +12326,7 @@
       <c r="C415" s="4">
         <v>1.43</v>
       </c>
-      <c r="D415" s="7">
+      <c r="D415" s="6">
         <v>0.631</v>
       </c>
       <c r="E415" s="6">
@@ -12352,7 +12343,7 @@
       <c r="C416" s="4">
         <v>1.43</v>
       </c>
-      <c r="D416" s="7">
+      <c r="D416" s="6">
         <v>0.398</v>
       </c>
       <c r="E416" s="6">
@@ -12369,7 +12360,7 @@
       <c r="C417" s="4">
         <v>1.43</v>
       </c>
-      <c r="D417" s="7">
+      <c r="D417" s="6">
         <v>0.251</v>
       </c>
       <c r="E417" s="6">
@@ -12386,7 +12377,7 @@
       <c r="C418" s="4">
         <v>1.43</v>
       </c>
-      <c r="D418" s="7">
+      <c r="D418" s="6">
         <v>0.158</v>
       </c>
       <c r="E418" s="6">
@@ -12403,7 +12394,7 @@
       <c r="C419" s="4">
         <v>1.43</v>
       </c>
-      <c r="D419" s="7">
+      <c r="D419" s="6">
         <v>0.1</v>
       </c>
       <c r="E419" s="6">
@@ -12420,7 +12411,7 @@
       <c r="C420" s="4">
         <v>1.43</v>
       </c>
-      <c r="D420" s="7">
+      <c r="D420" s="6">
         <v>0.0631</v>
       </c>
       <c r="E420" s="6">
@@ -12437,7 +12428,7 @@
       <c r="C421" s="4">
         <v>1.43</v>
       </c>
-      <c r="D421" s="7">
+      <c r="D421" s="6">
         <v>0.0398</v>
       </c>
       <c r="E421" s="6">
@@ -12454,7 +12445,7 @@
       <c r="C422" s="4">
         <v>1.43</v>
       </c>
-      <c r="D422" s="7">
+      <c r="D422" s="6">
         <v>0.0251</v>
       </c>
       <c r="E422" s="6">
@@ -12471,7 +12462,7 @@
       <c r="C423" s="4">
         <v>1.43</v>
       </c>
-      <c r="D423" s="7">
+      <c r="D423" s="6">
         <v>0.0158</v>
       </c>
       <c r="E423" s="6">
@@ -12488,7 +12479,7 @@
       <c r="C424" s="4">
         <v>1.43</v>
       </c>
-      <c r="D424" s="7">
+      <c r="D424" s="6">
         <v>0.01</v>
       </c>
       <c r="E424" s="6">

--- a/MFNN/singlefluid/Data_HF.xlsx
+++ b/MFNN/singlefluid/Data_HF.xlsx
@@ -448,7 +448,7 @@
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>40</v>
       </c>
@@ -494,7 +494,7 @@
         <v>9.017986400526432</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>40</v>
       </c>
@@ -517,7 +517,7 @@
         <v>11.88304408269429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>40</v>
       </c>
@@ -540,7 +540,7 @@
         <v>13.976993256644189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>40</v>
       </c>
@@ -563,7 +563,7 @@
         <v>20.17226807645969</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>40</v>
       </c>
@@ -586,7 +586,7 @@
         <v>29.50307229164089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>40</v>
       </c>
@@ -609,7 +609,7 @@
         <v>43.01026119402985</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>40</v>
       </c>
@@ -632,7 +632,7 @@
         <v>61.964850907879395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>40</v>
       </c>
@@ -655,7 +655,7 @@
         <v>89.15063350539653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -678,7 +678,7 @@
         <v>125.6998147779952</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -701,7 +701,7 @@
         <v>168.4659528154614</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>40</v>
       </c>
@@ -724,7 +724,7 @@
         <v>219.99104744852283</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>40</v>
       </c>
@@ -747,7 +747,7 @@
         <v>317.6207257834079</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>40</v>
       </c>
@@ -770,7 +770,7 @@
         <v>511.15712545676</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>162</v>
       </c>
@@ -793,7 +793,7 @@
         <v>2.0224320610010196</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>162</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1.927805763823805</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>162</v>
       </c>
@@ -839,7 +839,7 @@
         <v>1.8853958161623297</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>162</v>
       </c>
@@ -862,7 +862,7 @@
         <v>1.9092677654687922</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>162</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2.01773459788727</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>162</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>2.021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>40</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1.908</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>40</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1.796</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>40</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>1.674</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>40</v>
       </c>
